--- a/data/trans_orig/Q25B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q25B01-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>23.53396750089833</v>
+        <v>23.39739498168993</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>24.33253953527678</v>
+        <v>24.42167986518512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21.18442682620909</v>
+        <v>21.22885712486476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20.9676166829474</v>
+        <v>20.94410481306182</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>11.89790001795139</v>
+        <v>11.90949567384103</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.793576008254329</v>
+        <v>9.90552884280488</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.32361249566919</v>
+        <v>10.47523265321511</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>12.32952857372659</v>
+        <v>11.9995867284949</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>21.79994065191498</v>
+        <v>21.90088541942831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22.45805372578583</v>
+        <v>22.37847082549722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19.74888354168993</v>
+        <v>19.5107880502756</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>19.50043321306556</v>
+        <v>19.53469823093687</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.2996901952132</v>
+        <v>26.45467893681723</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>28.00272130161719</v>
+        <v>27.93794426941509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25.18705771699775</v>
+        <v>25.37135277230144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.36671594735317</v>
+        <v>24.53808393246333</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.42124617429975</v>
+        <v>17.20696776849051</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.40740519847795</v>
+        <v>14.47104598237887</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.02400165172812</v>
+        <v>15.96884486837887</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.6990716829381</v>
+        <v>16.47320163677162</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>24.70726851809943</v>
+        <v>24.71129833872538</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25.68088911876927</v>
+        <v>25.76392754643905</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23.48251905802789</v>
+        <v>23.36983411185545</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>22.53962212973576</v>
+        <v>22.48410020607646</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>21.59813855200571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20.24304820306848</v>
+        <v>20.24304820306847</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>12.16247136535985</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>18.355883501678</v>
+        <v>18.47951800726655</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>19.6207865806671</v>
+        <v>19.74255992383082</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20.06779316240933</v>
+        <v>19.99448182751296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18.72727070896855</v>
+        <v>18.72919967902092</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>10.89135068516853</v>
+        <v>10.91689287656177</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>12.90746940654748</v>
+        <v>12.77339964963058</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>12.7017159993817</v>
+        <v>12.73191859348693</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>10.91823427701915</v>
+        <v>10.96899061422769</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>15.7191115428275</v>
+        <v>15.72531467205453</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.24736622307774</v>
+        <v>17.30833776795662</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.60262152415347</v>
+        <v>17.44733883872901</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>15.92144563182098</v>
+        <v>15.96217413210893</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>21.26175979991876</v>
+        <v>21.24230018029121</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>22.67067303507205</v>
+        <v>22.63866045250325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23.31396518985166</v>
+        <v>23.19675436829765</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.84010172272667</v>
+        <v>21.72562414035415</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>13.73855593923617</v>
+        <v>13.7814789785204</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>15.82396296557227</v>
+        <v>15.86966111383179</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>15.39485540704311</v>
+        <v>15.3788588463377</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>12.99585716389594</v>
+        <v>13.07066786227229</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.9853541725631</v>
+        <v>17.89296792782152</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19.36283476363432</v>
+        <v>19.53696165662669</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19.92506700353946</v>
+        <v>19.83967002477678</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.95331418183763</v>
+        <v>18.01035385282052</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.38739280498736</v>
+        <v>18.18350557692208</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.5096192925478</v>
+        <v>16.56902563085379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15.48821166077612</v>
+        <v>15.86668090722992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.87451197262823</v>
+        <v>17.03740806006174</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>10.29669157029494</v>
+        <v>10.23474631432661</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.26814338310854</v>
+        <v>10.15469165018009</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.40310208162168</v>
+        <v>10.37527965006594</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.4116771091128</v>
+        <v>10.5667245794762</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>15.73497960144704</v>
+        <v>15.28711326653976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14.32812095300598</v>
+        <v>14.19044752329027</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13.46085313488894</v>
+        <v>13.66648608002076</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>14.77410804032674</v>
+        <v>14.8636021551848</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.47478780947722</v>
+        <v>24.21141732636579</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.49138095221336</v>
+        <v>22.63335286703496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.26815452861645</v>
+        <v>21.44259740296282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.27528896763497</v>
+        <v>21.22711335817543</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.9194885620278</v>
+        <v>14.21036669991998</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.27399794760887</v>
+        <v>14.42398128713707</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.5342011891837</v>
+        <v>14.54495736748289</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.90633561553155</v>
+        <v>14.2076464007568</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.03301424643215</v>
+        <v>19.92397083907714</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.19835328648156</v>
+        <v>18.24982106074436</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.11721959469686</v>
+        <v>17.3253377578617</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.72453063486866</v>
+        <v>17.81430050913846</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>21.2172424411048</v>
+        <v>21.41289457417686</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>22.07454994726944</v>
+        <v>21.99371966756952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20.54077072529778</v>
+        <v>20.55417889126203</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19.61135761777353</v>
+        <v>19.56635342777872</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>11.59858788713487</v>
+        <v>11.59078314957636</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.43753413742431</v>
+        <v>12.42725313662921</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>12.43952061151515</v>
+        <v>12.36373346031611</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>11.47957858604209</v>
+        <v>11.43554751692733</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>18.74413814316164</v>
+        <v>18.74158074499731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19.24914420616508</v>
+        <v>19.2408168882192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.81227131416291</v>
+        <v>17.87791633380281</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.95177750977403</v>
+        <v>16.89644048354393</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.36552868624295</v>
+        <v>23.47107992882212</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.30099126651498</v>
+        <v>24.24703006013635</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22.79092507214229</v>
+        <v>22.93332075716679</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21.57829096644859</v>
+        <v>21.5480446647762</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>13.85221239069861</v>
+        <v>13.70280423409532</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.51757531209368</v>
+        <v>14.60007082367444</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>14.42350743093071</v>
+        <v>14.37446846044601</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.12556852721487</v>
+        <v>13.15754334543865</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>20.47459051832728</v>
+        <v>20.42162225816458</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20.97363725144908</v>
+        <v>20.97506188275799</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19.55578123396239</v>
+        <v>19.67384163434301</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.43278821633061</v>
+        <v>18.43161345573476</v>
       </c>
     </row>
     <row r="16">
